--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>458986.4610814436</v>
+        <v>486115.6938803869</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2546036.578839957</v>
+        <v>502076.0343101878</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13112574.23349763</v>
+        <v>12137797.22804338</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7514765.611832734</v>
+        <v>7961666.065119934</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>50.85270996232039</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>147.8072308395888</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>181.3766123912367</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>130.6240249234785</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>74.44211478292745</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>181.3766123912367</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>188.2479577769974</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>227.2902442456971</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>122.9958236120818</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="V6" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.19724713161</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1217,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>28.09101898175858</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1269,13 +1271,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>227.2902442456971</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>93.28541391530027</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1373,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>200.19724713161</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1458,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>57.30624849284231</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>227.2902442456971</v>
+        <v>236.9142271596711</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.30468686766744</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>83.59830597394809</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>227.2902442456971</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>200.19724713161</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.05562715984487</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1698,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>18.11186662957333</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>7.203367682519136</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>170.1519553773886</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>227.2902442456972</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>200.19724713161</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>227.2902442456972</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.2902442456972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.709801189989618</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -1980,16 +1982,16 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
-        <v>227.2902442456972</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>227.2902442456972</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>10.43941339835945</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>35.28681247649033</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>227.2902442456972</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>398.2483396408657</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>292.1380595743619</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933832</v>
       </c>
       <c r="G21" t="n">
         <v>136.5310119231965</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>54.42397186352292</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>350.0635064299827</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>397.6290279809132</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -2363,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.1620927780567</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>377.6097377947237</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>161.2398232196976</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>67.25025504144567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>9.308506974835963</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.8941930947532</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>176.7166301627352</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>136.0696023912437</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>352.1499522257657</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="H34" t="n">
-        <v>59.66385641544514</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>352.1499522257657</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>126.2798551468628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.6470461191481</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>152.4160434637383</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.052462558203959</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>169.0167291702124</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>292.1380595743618</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>33.89392690056376</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3919,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>184.388988834616</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>103.9751665068903</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>227.2902442456971</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>227.2902442456971</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>145.7188445567981</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>74.26944060919071</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
-        <v>227.2902442456971</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>227.2902442456971</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>77.3904209054608</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.4442427274748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.25320878673912</v>
+        <v>209.7888176234699</v>
       </c>
       <c r="C2" t="n">
-        <v>30.25320878673912</v>
+        <v>209.7888176234699</v>
       </c>
       <c r="D2" t="n">
-        <v>30.25320878673912</v>
+        <v>209.7888176234699</v>
       </c>
       <c r="E2" t="n">
-        <v>30.25320878673912</v>
+        <v>209.7888176234699</v>
       </c>
       <c r="F2" t="n">
-        <v>30.25320878673912</v>
+        <v>209.7888176234699</v>
       </c>
       <c r="G2" t="n">
-        <v>30.25320878673912</v>
+        <v>209.7888176234699</v>
       </c>
       <c r="H2" t="n">
-        <v>30.25320878673912</v>
+        <v>209.7888176234699</v>
       </c>
       <c r="I2" t="n">
-        <v>30.25320878673912</v>
+        <v>26.58011823838229</v>
       </c>
       <c r="J2" t="n">
-        <v>18.18321953965577</v>
+        <v>14.51012899129894</v>
       </c>
       <c r="K2" t="n">
-        <v>121.1982254505781</v>
+        <v>117.5251349022213</v>
       </c>
       <c r="L2" t="n">
-        <v>247.4758220779459</v>
+        <v>297.0879811695456</v>
       </c>
       <c r="M2" t="n">
-        <v>464.45144934085</v>
+        <v>476.65082743687</v>
       </c>
       <c r="N2" t="n">
-        <v>670.3059715480894</v>
+        <v>656.2136737041943</v>
       </c>
       <c r="O2" t="n">
-        <v>819.5009216907374</v>
+        <v>725.5064495649468</v>
       </c>
       <c r="P2" t="n">
-        <v>909.1609769827884</v>
+        <v>725.5064495649468</v>
       </c>
       <c r="Q2" t="n">
-        <v>899.0693616145613</v>
+        <v>725.5064495649468</v>
       </c>
       <c r="R2" t="n">
-        <v>747.6864141992586</v>
+        <v>725.5064495649468</v>
       </c>
       <c r="S2" t="n">
-        <v>536.5550307788087</v>
+        <v>725.5064495649468</v>
       </c>
       <c r="T2" t="n">
-        <v>311.2056877847366</v>
+        <v>725.5064495649468</v>
       </c>
       <c r="U2" t="n">
-        <v>81.61958248605265</v>
+        <v>725.5064495649468</v>
       </c>
       <c r="V2" t="n">
-        <v>30.25320878673912</v>
+        <v>725.5064495649468</v>
       </c>
       <c r="W2" t="n">
-        <v>30.25320878673912</v>
+        <v>576.206216393645</v>
       </c>
       <c r="X2" t="n">
-        <v>30.25320878673912</v>
+        <v>392.9975170085575</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.25320878673912</v>
+        <v>209.7888176234699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>325.3338409922336</v>
+        <v>89.7041843275893</v>
       </c>
       <c r="C3" t="n">
-        <v>150.8808117111066</v>
+        <v>89.7041843275893</v>
       </c>
       <c r="D3" t="n">
-        <v>18.93735219244148</v>
+        <v>89.7041843275893</v>
       </c>
       <c r="E3" t="n">
-        <v>18.93735219244148</v>
+        <v>89.7041843275893</v>
       </c>
       <c r="F3" t="n">
-        <v>18.93735219244148</v>
+        <v>89.7041843275893</v>
       </c>
       <c r="G3" t="n">
-        <v>18.93735219244148</v>
+        <v>14.51012899129894</v>
       </c>
       <c r="H3" t="n">
-        <v>18.93735219244148</v>
+        <v>14.51012899129894</v>
       </c>
       <c r="I3" t="n">
-        <v>18.93735219244148</v>
+        <v>14.51012899129894</v>
       </c>
       <c r="J3" t="n">
-        <v>18.18321953965577</v>
+        <v>14.51012899129894</v>
       </c>
       <c r="K3" t="n">
-        <v>18.18321953965577</v>
+        <v>14.51012899129894</v>
       </c>
       <c r="L3" t="n">
-        <v>18.18321953965577</v>
+        <v>117.4233522496444</v>
       </c>
       <c r="M3" t="n">
-        <v>207.088257249628</v>
+        <v>296.9861985169688</v>
       </c>
       <c r="N3" t="n">
-        <v>432.1055990528681</v>
+        <v>296.9861985169688</v>
       </c>
       <c r="O3" t="n">
-        <v>657.1229408561082</v>
+        <v>476.5490447842931</v>
       </c>
       <c r="P3" t="n">
-        <v>839.766418469459</v>
+        <v>656.1118910516175</v>
       </c>
       <c r="Q3" t="n">
-        <v>909.1609769827884</v>
+        <v>725.5064495649468</v>
       </c>
       <c r="R3" t="n">
-        <v>909.1609769827884</v>
+        <v>624.3369201178325</v>
       </c>
       <c r="S3" t="n">
-        <v>909.1609769827884</v>
+        <v>624.3369201178325</v>
       </c>
       <c r="T3" t="n">
-        <v>909.1609769827884</v>
+        <v>624.3369201178325</v>
       </c>
       <c r="U3" t="n">
-        <v>909.1609769827884</v>
+        <v>624.3369201178325</v>
       </c>
       <c r="V3" t="n">
-        <v>909.1609769827884</v>
+        <v>624.3369201178325</v>
       </c>
       <c r="W3" t="n">
-        <v>909.1609769827884</v>
+        <v>624.3369201178325</v>
       </c>
       <c r="X3" t="n">
-        <v>701.3094767772556</v>
+        <v>441.1282207327449</v>
       </c>
       <c r="Y3" t="n">
-        <v>493.5491780123016</v>
+        <v>257.9195213476573</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="C4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="D4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="E4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="F4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="G4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="I4" t="n">
-        <v>112.4854216777091</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="J4" t="n">
-        <v>18.18321953965577</v>
+        <v>14.51012899129894</v>
       </c>
       <c r="K4" t="n">
-        <v>18.18321953965577</v>
+        <v>14.51012899129894</v>
       </c>
       <c r="L4" t="n">
-        <v>45.49734454736874</v>
+        <v>41.82425399901192</v>
       </c>
       <c r="M4" t="n">
-        <v>84.68538273959092</v>
+        <v>81.0122921912341</v>
       </c>
       <c r="N4" t="n">
-        <v>128.3762333950272</v>
+        <v>124.7031428466704</v>
       </c>
       <c r="O4" t="n">
-        <v>152.7155100299265</v>
+        <v>149.0424194815697</v>
       </c>
       <c r="P4" t="n">
-        <v>152.7155100299265</v>
+        <v>149.0424194815697</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.7155100299265</v>
+        <v>149.0424194815697</v>
       </c>
       <c r="R4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="S4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="T4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="U4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="V4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="W4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="X4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
       <c r="Y4" t="n">
-        <v>152.7155100299265</v>
+        <v>108.8123311293523</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.25320878673912</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C5" t="n">
-        <v>30.25320878673912</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D5" t="n">
-        <v>30.25320878673912</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E5" t="n">
-        <v>30.25320878673912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>30.25320878673912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>30.25320878673912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>30.25320878673912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>30.25320878673912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>121.1982254505781</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>301.2740770352367</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>518.2497042981408</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>724.1042265053802</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>873.2991766480283</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>909.1609769827884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>909.1609769827884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>909.1609769827884</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>909.1609769827884</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>909.1609769827884</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>909.1609769827884</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V5" t="n">
-        <v>909.1609769827884</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W5" t="n">
-        <v>679.5748716841044</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="X5" t="n">
-        <v>449.9887663854205</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y5" t="n">
-        <v>220.4026610867365</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2005613428959</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>243.2005613428959</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>432.1055990528681</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>657.1229408561082</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>839.766418469459</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>909.1609769827884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>807.9914475356741</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>683.7532418669045</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>683.7532418669045</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>455.5296236032937</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V6" t="n">
-        <v>225.9435183046097</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>225.9435183046097</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>225.9435183046097</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9798578654695</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
-        <v>40.67765572741622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>45.49734454736874</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>84.68538273959092</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>128.3762333950272</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="R7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="S7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.7155100299265</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.3554301370236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>477.3554301370236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>247.7693248383397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>247.7693248383397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>247.7693248383397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>67.3999704932873</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>247.4758220779459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>464.45144934085</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>670.3059715480894</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>819.5009216907374</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>909.1609769827884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>909.1609769827884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>909.1609769827884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>909.1609769827884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>909.1609769827884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>909.1609769827884</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>909.1609769827884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>909.1609769827884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>909.1609769827884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>706.9415354357076</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221.7651481218095</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C9" t="n">
-        <v>47.31211884068247</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>18.93735219244148</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>18.93735219244148</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>18.93735219244148</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>18.93735219244148</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>18.93735219244148</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>18.93735219244148</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>143.5407795974932</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>368.5581214007333</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>593.5754632039734</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>657.1229408561082</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>657.1229408561082</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>839.766418469459</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>909.1609769827884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>909.1609769827884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>909.1609769827884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>909.1609769827884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>680.9373587191774</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>451.3512534204934</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>221.7651481218095</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X9" t="n">
-        <v>221.7651481218095</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="Y9" t="n">
-        <v>221.7651481218095</v>
+        <v>398.1570697793896</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>18.18321953965577</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>18.18321953965577</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>18.18321953965577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>45.49734454736874</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>84.68538273959092</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>128.3762333950272</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.7155100299265</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>909.1609769827884</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C11" t="n">
-        <v>909.1609769827884</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D11" t="n">
-        <v>706.9415354357076</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E11" t="n">
-        <v>477.3554301370236</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F11" t="n">
-        <v>247.7693248383397</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G11" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H11" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I11" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K11" t="n">
-        <v>243.2005613428959</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>468.217903146136</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
-        <v>617.5046974352844</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>658.6379409641514</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O11" t="n">
-        <v>684.1436351795483</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P11" t="n">
-        <v>909.1609769827884</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q11" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>909.1609769827884</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="V11" t="n">
-        <v>909.1609769827884</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="W11" t="n">
-        <v>909.1609769827884</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="X11" t="n">
-        <v>909.1609769827884</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y11" t="n">
-        <v>909.1609769827884</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>243.5537474494114</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C12" t="n">
-        <v>243.5537474494114</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D12" t="n">
-        <v>243.5537474494114</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E12" t="n">
-        <v>243.5537474494114</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F12" t="n">
-        <v>185.6686479616919</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G12" t="n">
-        <v>185.6686479616919</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H12" t="n">
-        <v>80.22586598663375</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>93.44038193978558</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K12" t="n">
-        <v>93.44038193978558</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L12" t="n">
-        <v>318.4577237430257</v>
+        <v>288.9361218459457</v>
       </c>
       <c r="M12" t="n">
-        <v>381.5566241885566</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="N12" t="n">
-        <v>460.7342096879899</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O12" t="n">
-        <v>685.75155149123</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P12" t="n">
-        <v>909.1609769827884</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q12" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>909.1609769827884</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T12" t="n">
-        <v>909.1609769827884</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U12" t="n">
-        <v>680.9913529536282</v>
+        <v>704.403429694748</v>
       </c>
       <c r="V12" t="n">
-        <v>680.9913529536282</v>
+        <v>469.2513214630052</v>
       </c>
       <c r="W12" t="n">
-        <v>451.4052476549442</v>
+        <v>229.9440213017212</v>
       </c>
       <c r="X12" t="n">
-        <v>243.5537474494114</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y12" t="n">
-        <v>243.5537474494114</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="H13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="I13" t="n">
-        <v>18.18321953965577</v>
+        <v>126.9677807731686</v>
       </c>
       <c r="J13" t="n">
-        <v>18.18321953965577</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="K13" t="n">
-        <v>74.4854126059239</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L13" t="n">
-        <v>202.0592701670823</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M13" t="n">
-        <v>346.9571388851122</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N13" t="n">
-        <v>493.8442765695413</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>613.5020270787815</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P13" t="n">
-        <v>692.3692219257256</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q13" t="n">
-        <v>692.3692219257256</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R13" t="n">
-        <v>544.2225633599096</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S13" t="n">
-        <v>329.9341401780723</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T13" t="n">
-        <v>102.625952846674</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.18321953965577</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>477.3554301370236</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C14" t="n">
-        <v>247.7693248383397</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D14" t="n">
-        <v>18.18321953965577</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E14" t="n">
-        <v>18.18321953965577</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F14" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G14" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H14" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I14" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J14" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K14" t="n">
-        <v>243.2005613428959</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>429.1092442081829</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M14" t="n">
-        <v>465.0471662083142</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N14" t="n">
-        <v>506.1804097371813</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O14" t="n">
-        <v>531.686103952578</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P14" t="n">
-        <v>756.7034457558182</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q14" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R14" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S14" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T14" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U14" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V14" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W14" t="n">
-        <v>706.9415354357076</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="X14" t="n">
-        <v>706.9415354357076</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y14" t="n">
-        <v>706.9415354357076</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>638.7182265412234</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="C15" t="n">
-        <v>464.2651972600964</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="D15" t="n">
-        <v>315.3307875988452</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0933325933896</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F15" t="n">
-        <v>156.0933325933896</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G15" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H15" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I15" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J15" t="n">
-        <v>93.44038193978558</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K15" t="n">
-        <v>93.44038193978558</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L15" t="n">
-        <v>318.4577237430257</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M15" t="n">
-        <v>543.4750655462658</v>
+        <v>485.8202418432342</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6526510456991</v>
+        <v>759.2151904085661</v>
       </c>
       <c r="O15" t="n">
-        <v>684.1436351795483</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P15" t="n">
-        <v>909.1609769827884</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q15" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>909.1609769827884</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>909.1609769827884</v>
+        <v>1086.331240032075</v>
       </c>
       <c r="U15" t="n">
-        <v>909.1609769827884</v>
+        <v>1086.331240032075</v>
       </c>
       <c r="V15" t="n">
-        <v>909.1609769827884</v>
+        <v>851.1791318003322</v>
       </c>
       <c r="W15" t="n">
-        <v>909.1609769827884</v>
+        <v>596.9417750721307</v>
       </c>
       <c r="X15" t="n">
-        <v>909.1609769827884</v>
+        <v>389.0902748665978</v>
       </c>
       <c r="Y15" t="n">
-        <v>701.4006782178344</v>
+        <v>181.3299761016439</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F16" t="n">
-        <v>526.9168277030107</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G16" t="n">
-        <v>357.9170274413431</v>
+        <v>29.36865006842999</v>
       </c>
       <c r="H16" t="n">
-        <v>200.1686548738732</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I16" t="n">
-        <v>63.83974397252143</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J16" t="n">
-        <v>18.18321953965577</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K16" t="n">
-        <v>74.4854126059239</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L16" t="n">
-        <v>202.0592701670823</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M16" t="n">
-        <v>346.9571388851122</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N16" t="n">
-        <v>493.8442765695413</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O16" t="n">
-        <v>613.5020270787815</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P16" t="n">
-        <v>692.3692219257256</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y16" t="n">
-        <v>662.9523027793475</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>449.9887663854206</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="C17" t="n">
-        <v>449.9887663854206</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D17" t="n">
-        <v>449.9887663854206</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E17" t="n">
-        <v>449.9887663854206</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>449.9887663854206</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>220.4026610867366</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>18.18321953965577</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>18.18321953965577</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>18.18321953965577</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>22.01939518380465</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
-        <v>247.0367369870449</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>459.1262933763082</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
-        <v>684.1436351795485</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>909.1609769827887</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>909.1609769827887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>909.1609769827887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>909.1609769827887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>909.1609769827887</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>909.1609769827887</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V17" t="n">
-        <v>679.5748716841047</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W17" t="n">
-        <v>679.5748716841047</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X17" t="n">
-        <v>679.5748716841047</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="Y17" t="n">
-        <v>449.9887663854206</v>
+        <v>1893.689751284805</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.18321953965577</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>18.18321953965577</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>18.18321953965577</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>18.18321953965577</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>18.18321953965577</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>18.18321953965577</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>18.18321953965577</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>18.18321953965577</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>18.18321953965577</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>55.66719578490303</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M18" t="n">
-        <v>280.6845375881433</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>505.7018793913835</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>730.7192211946237</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>909.1609769827887</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
-        <v>909.1609769827887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>904.4036020434053</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>904.4036020434053</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>705.5250541661841</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
-        <v>477.3554301370239</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>247.7693248383398</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>18.18321953965577</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>18.18321953965577</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.18321953965577</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
-        <v>74.4854126059239</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>202.0592701670823</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>346.9571388851122</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>493.8442765695413</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>613.5020270787815</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>692.3692219257256</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>692.3692219257256</v>
+        <v>717.5841221878893</v>
       </c>
       <c r="R19" t="n">
-        <v>692.3692219257256</v>
+        <v>717.5841221878893</v>
       </c>
       <c r="S19" t="n">
-        <v>692.3692219257256</v>
+        <v>717.5841221878893</v>
       </c>
       <c r="T19" t="n">
-        <v>465.0610345943273</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U19" t="n">
-        <v>465.0610345943273</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V19" t="n">
-        <v>429.4177896685795</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W19" t="n">
-        <v>199.8316843698955</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X19" t="n">
-        <v>199.8316843698955</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.8316843698955</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1251.855211652197</v>
+        <v>2091.914583926163</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117852</v>
+        <v>2091.914583926163</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>1733.648885319412</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>1347.860632721168</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>936.8747279315605</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N20" t="n">
         <v>1836.345445977174</v>
@@ -5780,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W20" t="n">
-        <v>2402.06014195321</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X20" t="n">
-        <v>2028.59438369213</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y20" t="n">
-        <v>1638.455051716319</v>
+        <v>2478.514423990285</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.9166907734179</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>108.9166907734179</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>108.9166907734179</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>108.9166907734179</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5932,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W22" t="n">
-        <v>290.5651556036576</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X22" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1717.15289212512</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="C23" t="n">
-        <v>1717.15289212512</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="D23" t="n">
-        <v>1717.15289212512</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="G23" t="n">
         <v>534.603677789272</v>
@@ -5984,22 +5986,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W23" t="n">
-        <v>2090.6186503862</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X23" t="n">
-        <v>1717.15289212512</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y23" t="n">
-        <v>1717.15289212512</v>
+        <v>936.2491605982752</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6105,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8405610245969</v>
+        <v>2294.708047044452</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8405610245969</v>
+        <v>2125.771864116545</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8405610245969</v>
+        <v>2125.771864116545</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8405610245969</v>
+        <v>2125.771864116545</v>
       </c>
       <c r="F25" t="n">
-        <v>513.8405610245969</v>
+        <v>2125.771864116545</v>
       </c>
       <c r="G25" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X25" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y25" t="n">
-        <v>513.8405610245969</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1327.013560149308</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C26" t="n">
-        <v>1327.013560149308</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D26" t="n">
-        <v>1327.013560149308</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.013560149308</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>916.0276553597</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6254,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2534.280582715498</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656313</v>
+        <v>2280.518797353589</v>
       </c>
       <c r="V26" t="n">
-        <v>2443.387305656313</v>
+        <v>1949.455910010018</v>
       </c>
       <c r="W26" t="n">
-        <v>2090.618650386199</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="X26" t="n">
-        <v>1717.152892125119</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y26" t="n">
-        <v>1327.013560149308</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="27">
@@ -6285,43 +6287,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>290.8087152951862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C28" t="n">
-        <v>121.8725323672793</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D28" t="n">
-        <v>121.8725323672793</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>2083.293227597676</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>290.8087152951862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>290.8087152951862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W28" t="n">
-        <v>290.8087152951862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X28" t="n">
-        <v>290.8087152951862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y28" t="n">
-        <v>290.8087152951862</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1372.955922978507</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C29" t="n">
-        <v>1372.955922978507</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D29" t="n">
-        <v>1363.553390680693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6488,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2306.937064852844</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656313</v>
+        <v>2306.937064852844</v>
       </c>
       <c r="V29" t="n">
-        <v>2112.324418312743</v>
+        <v>1975.874177509273</v>
       </c>
       <c r="W29" t="n">
-        <v>1759.555763042629</v>
+        <v>1975.874177509273</v>
       </c>
       <c r="X29" t="n">
-        <v>1759.555763042629</v>
+        <v>1975.874177509273</v>
       </c>
       <c r="Y29" t="n">
-        <v>1759.555763042629</v>
+        <v>1585.734845533462</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6579,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2515.500626187982</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="C31" t="n">
-        <v>2346.564443260075</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D31" t="n">
-        <v>2196.44780384774</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E31" t="n">
-        <v>2048.534710265346</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632152</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632152</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>609.3508327416157</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="C32" t="n">
-        <v>471.9067899221776</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="D32" t="n">
-        <v>471.9067899221776</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6728,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.324418312743</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W32" t="n">
-        <v>1759.555763042629</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X32" t="n">
-        <v>1386.090004781549</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y32" t="n">
-        <v>995.9506728057374</v>
+        <v>2105.048665729205</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
@@ -6786,16 +6788,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6816,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="C34" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="D34" t="n">
-        <v>2547.032451605887</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="E34" t="n">
-        <v>2399.119358023494</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="F34" t="n">
-        <v>2252.229410525583</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="G34" t="n">
-        <v>2083.229610263916</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
         <v>2022.963088632153</v>
@@ -6880,28 +6882,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.405821939171</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>808.6937513590203</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="C35" t="n">
-        <v>439.7312344186087</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y35" t="n">
-        <v>808.6937513590203</v>
+        <v>2105.048665729205</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7017,22 +7019,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7053,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7132,13 +7134,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y37" t="n">
-        <v>507.3364050629041</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>413.2717739202503</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C38" t="n">
-        <v>413.2717739202503</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D38" t="n">
-        <v>55.00607531349976</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>55.00607531349976</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V38" t="n">
-        <v>1916.245359491378</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W38" t="n">
-        <v>1563.476704221264</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X38" t="n">
-        <v>1190.010945960184</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y38" t="n">
-        <v>799.8716139843721</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="39">
@@ -7357,19 +7359,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>224.6669506791649</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>224.6669506791649</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X40" t="n">
         <v>53.94298182036445</v>
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7445,16 +7447,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757142</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.54400078133</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7527,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.5995062532301</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C43" t="n">
-        <v>99.5995062532301</v>
+        <v>88.1792716189137</v>
       </c>
       <c r="D43" t="n">
-        <v>99.5995062532301</v>
+        <v>88.1792716189137</v>
       </c>
       <c r="E43" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7588,31 +7590,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245969</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V43" t="n">
-        <v>513.8405610245969</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W43" t="n">
-        <v>327.5890571512475</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X43" t="n">
-        <v>99.5995062532301</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.5995062532301</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>854.1322875132814</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>854.1322875132814</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D44" t="n">
-        <v>624.5461822145975</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>394.9600769159135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>165.3739716172296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>165.3739716172296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>133.9510757726055</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K44" t="n">
-        <v>133.9510757726055</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>358.9684175758456</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
-        <v>583.9857593790857</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>625.1190029079528</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
-        <v>756.7034457558181</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>756.7034457558181</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>909.1609769827883</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>854.1322875132814</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>854.1322875132814</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>854.1322875132814</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>854.1322875132814</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>854.1322875132814</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W44" t="n">
-        <v>854.1322875132814</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X44" t="n">
-        <v>854.1322875132814</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y44" t="n">
-        <v>854.1322875132814</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>242.1372661798875</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>167.117629200907</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>18.18321953965577</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E45" t="n">
-        <v>18.18321953965577</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F45" t="n">
-        <v>18.18321953965577</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>18.18321953965577</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>18.18321953965577</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>18.18321953965577</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>18.18321953965577</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>243.2005613428959</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>306.2994617884268</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>459.126293376308</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>684.1436351795481</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>909.1609769827883</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>909.1609769827883</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>909.1609769827883</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>909.1609769827883</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>909.1609769827883</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
-        <v>909.1609769827883</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>679.5748716841043</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>449.9887663854204</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>242.1372661798875</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>242.1372661798875</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.18321953965577</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C46" t="n">
-        <v>18.18321953965577</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D46" t="n">
-        <v>18.18321953965577</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E46" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>18.18321953965577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>74.4854126059239</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>202.0592701670823</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>346.9571388851122</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>493.8442765695413</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>613.5020270787815</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>692.3692219257256</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>692.3692219257256</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>692.3692219257256</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>692.3692219257256</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>692.3692219257256</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>462.7831166270416</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V46" t="n">
-        <v>462.7831166270416</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W46" t="n">
-        <v>462.7831166270416</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X46" t="n">
-        <v>234.7935657290243</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.18321953965577</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>363.3195428764193</v>
+        <v>417.143027361224</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>411.7228456185094</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>410.7896759878276</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>300.0909143113357</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>242.5071305458797</v>
       </c>
       <c r="M3" t="n">
-        <v>332.9472033260307</v>
+        <v>323.5106463132551</v>
       </c>
       <c r="N3" t="n">
-        <v>358.6319563290304</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>369.8864886901415</v>
+        <v>323.9728568356811</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>315.3510198055669</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8231,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>267.4570364974515</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,16 +8300,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>365.8446240255713</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>322.1548814873456</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>369.8864886901415</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>269.8037408971336</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>365.8446240255713</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>369.4242781677154</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>195.5310834491261</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>254.2126153825199</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>223.4153193526174</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>114.4938103929465</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>240.1513361055</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.3174843700358</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>6.639660809448827</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>189.4276419777706</v>
+        <v>252.9497113810285</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5708230978369</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>204.4876291214821</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.26619292211501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>254.2126153825199</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>183.911623455695</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>240.1513361055</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K15" t="n">
-        <v>6.639660809448827</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>189.4276419777706</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>163.5539811694032</v>
+        <v>204.029661389774</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O15" t="n">
-        <v>11.39268403784594</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>206.1117870120696</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.26619292211501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>26.92237113682285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>190.9893129324333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>172.6831443034306</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>201.5269167553974</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>240.1513361055001</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.3174843700358</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>6.639660809448827</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M18" t="n">
-        <v>163.5539811694033</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>147.3128851553605</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>176.5708230978369</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>159.0657405321958</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.26619292211501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,10 +9406,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928319</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9884,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N27" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10667,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
-        <v>26.92237113682285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>223.4153193526174</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>190.9893129324331</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>107.1502511439076</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>12.86109185980291</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>6.639660809448827</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>189.4276419777705</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>74.39317786711908</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>176.5708230978368</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P45" t="n">
-        <v>206.1117870120696</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.26619292211501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>29.09927717916921</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>24.0554086621394</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>276.8995485078145</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>201.4337378778243</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>188.3544882872323</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>204.8613262648169</v>
       </c>
     </row>
     <row r="3">
@@ -22626,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>16.82104064116029</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>62.90140238028319</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22689,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>24.39637281224077</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>24.30608338606766</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>137.4656039084742</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194.4858838864832</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22838,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>121.9507244717159</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>142.4408564327719</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.9476944103565</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22908,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>48.687347491756</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>114.7662707668343</v>
       </c>
       <c r="V6" t="n">
-        <v>5.510342903728173</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>46.33425578299913</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>155.4435974177835</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>127.3927973749859</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>188.012493269438</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23063,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23075,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823873</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>186.0406915244436</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23103,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>119.3540465828802</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23115,10 +23117,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23157,13 +23159,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>5.510342903728173</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>24.40473891522251</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>112.4875712881772</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,13 +23193,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23261,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>154.485794489073</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>154.6401258265647</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>179.5858014960143</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>186.4939257750979</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>8.095732519776732</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23346,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>87.76296390054156</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>24.40473891522251</v>
+        <v>14.78075600124848</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>82.24660231436351</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>202.6835682680297</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>155.4435974177835</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>137.9826475253105</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>127.3927973749859</v>
+        <v>111.4443843516483</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>149.043721585803</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104.4775564900225</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>181.7492343425985</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23662,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74592769735776</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>154.4623164153581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>195.1209363936189</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>186.4939257750978</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>123.7255256327471</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,13 +23785,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>100.4620142244377</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>158.9476944103564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.0014356923037</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23868,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>5.510342903728088</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>24.40473891522242</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>18.68333655655486</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23947,10 +23949,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>216.8508308473377</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>59.23275409089382</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15.53583037992934</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>57.10290914305114</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>90.99707615940832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24172,7 +24174,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24184,13 +24186,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724705</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>31.86686364227904</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>16.15514203988175</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24251,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>3.147709480994223</v>
+        <v>65.5291145295021</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853701</v>
@@ -24412,7 +24414,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>36.17443222607125</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>55.20849713796017</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>79.1837076051235</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831827</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24646,7 +24648,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,7 +24657,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>345.374534645847</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>4.554127262904586</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.115350019202111</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>120.1051426060693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923383</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>229.2032893797638</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>2.533089394917283</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25078,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>83.71149628510265</v>
       </c>
       <c r="H34" t="n">
-        <v>96.50703242635001</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923383</v>
@@ -25120,13 +25122,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25154,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>2.533089394917283</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>259.9580835091908</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25327,10 +25329,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>9.523842722647004</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853701</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>230.3177981997422</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.8235831835075</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25448,7 +25450,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25597,22 +25599,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>117.5062691663786</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>89.79231049790002</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25685,10 +25687,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>112.5400357460054</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25846,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>102.134009501975</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>278.7586751565903</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>127.3927973749859</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>154.6401258265647</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>179.5858014960144</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>178.203928207559</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25919,19 +25921,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>98.43905837912503</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>5.510342903728201</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>24.40473891522254</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26074,10 +26076,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>58.99162999628066</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>148.3192344835763</v>
       </c>
       <c r="Y46" t="n">
-        <v>4.14041062461996</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>480927.2780115192</v>
+        <v>448797.289143649</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>480927.2780115194</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>480927.2780115192</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506596.9622299867</v>
+        <v>519887.7922952694</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506596.9622299867</v>
+        <v>519887.7922952696</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506596.9622299867</v>
+        <v>819401.8737535683</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819401.8737535682</v>
+        <v>819401.8737535683</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819401.8737535683</v>
+        <v>819401.8737535684</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819401.8737535683</v>
+        <v>819401.8737535684</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819401.8737535685</v>
+        <v>819401.8737535684</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819401.8737535685</v>
+        <v>819401.8737535683</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819401.8737535685</v>
+        <v>819401.8737535684</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819401.8737535684</v>
+        <v>819401.8737535685</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506596.9622299866</v>
+        <v>819401.8737535685</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138475.0265272923</v>
+        <v>129236.3094006264</v>
       </c>
       <c r="C2" t="n">
-        <v>138475.0265272922</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>138475.0265272924</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>155835.2088752962</v>
+        <v>150604.5581398032</v>
       </c>
       <c r="F2" t="n">
-        <v>155835.2088752962</v>
+        <v>150604.5581398033</v>
       </c>
       <c r="G2" t="n">
-        <v>155835.2088752962</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26350,10 +26352,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>155835.2088752963</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76170.18852235074</v>
+        <v>60783.47447438841</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19267.18505391454</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>303480.393063</v>
+        <v>38628.88112923561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>375583.8824232417</v>
       </c>
       <c r="H3" t="n">
-        <v>120603.8212649466</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>59469.12866542117</v>
+        <v>47456.10237249277</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15348.82952195752</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>8757.582995213634</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>95810.565296671</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49380.60680998345</v>
+        <v>46020.40792345953</v>
       </c>
       <c r="C4" t="n">
-        <v>49380.60680998345</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="D4" t="n">
-        <v>49380.60680998345</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="E4" t="n">
-        <v>20946.99336189807</v>
+        <v>50562.47198319522</v>
       </c>
       <c r="F4" t="n">
-        <v>20946.99336189807</v>
+        <v>50562.47198319522</v>
       </c>
       <c r="G4" t="n">
-        <v>20946.99336189807</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="H4" t="n">
         <v>53660.56571087037</v>
@@ -26457,7 +26459,7 @@
         <v>53660.56571087037</v>
       </c>
       <c r="P4" t="n">
-        <v>20946.99336189807</v>
+        <v>53660.56571087037</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47446.84685013838</v>
+        <v>44655.29803338719</v>
       </c>
       <c r="C5" t="n">
-        <v>47446.84685013838</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>47446.84685013838</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>22054.05873007087</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="F5" t="n">
-        <v>22054.05873007087</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="G5" t="n">
-        <v>22054.05873007088</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>22054.05873007087</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34522.61565518027</v>
+        <v>-22222.87103060872</v>
       </c>
       <c r="C6" t="n">
-        <v>41647.57286717041</v>
+        <v>23303.11390642176</v>
       </c>
       <c r="D6" t="n">
-        <v>41647.57286717053</v>
+        <v>42570.29896033629</v>
       </c>
       <c r="E6" t="n">
-        <v>-190646.2362796728</v>
+        <v>43859.42551059223</v>
       </c>
       <c r="F6" t="n">
-        <v>112834.1567833273</v>
+        <v>82488.3066398279</v>
       </c>
       <c r="G6" t="n">
-        <v>112834.1567833273</v>
+        <v>-232696.2076841278</v>
       </c>
       <c r="H6" t="n">
-        <v>22283.85347416758</v>
+        <v>142887.6747391141</v>
       </c>
       <c r="I6" t="n">
         <v>142887.674739114</v>
       </c>
       <c r="J6" t="n">
-        <v>83418.54607369282</v>
+        <v>95431.57236662133</v>
       </c>
       <c r="K6" t="n">
-        <v>142887.674739114</v>
+        <v>127538.8452171565</v>
       </c>
       <c r="L6" t="n">
         <v>142887.674739114</v>
       </c>
       <c r="M6" t="n">
-        <v>142887.6747391141</v>
+        <v>134130.0917439004</v>
       </c>
       <c r="N6" t="n">
         <v>142887.6747391141</v>
       </c>
       <c r="O6" t="n">
-        <v>142887.674739114</v>
+        <v>47077.10944244302</v>
       </c>
       <c r="P6" t="n">
-        <v>112834.1567833274</v>
+        <v>142887.6747391141</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26787,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.2902442456971</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="C4" t="n">
-        <v>227.2902442456971</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>227.2902442456971</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>227.2902442456971</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F4" t="n">
-        <v>227.2902442456971</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G4" t="n">
-        <v>227.2902442456972</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26826,10 +26828,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>227.2902442456971</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.2902442456971</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.63767648642235</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="H4" t="n">
-        <v>446.9970285088584</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>227.2902442456971</v>
+        <v>181.3766123912368</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>59.63767648642224</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,25 +27257,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>227.2902442456971</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>59.63767648642235</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="P4" t="n">
-        <v>446.9970285088584</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34702,19 +34704,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>127.5531279064321</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>69.992702889649</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>103.9527507660056</v>
       </c>
       <c r="M3" t="n">
-        <v>190.8131694040123</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="N3" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>227.2902442456971</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>181.3766123912367</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34945,13 +34947,13 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>36.22404074218194</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,16 +35020,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>227.2902442456971</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>190.8131694040123</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O6" t="n">
-        <v>227.2902442456971</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>49.71388985215307</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35255,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>227.2902442456971</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
-        <v>64.18937136579275</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>227.2902442456971</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L11" t="n">
-        <v>227.2902442456971</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M11" t="n">
-        <v>150.7947417062105</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>41.54873083723948</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>25.76332749029979</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>227.2902442456971</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L12" t="n">
-        <v>227.2902442456971</v>
+        <v>130.751251524742</v>
       </c>
       <c r="M12" t="n">
-        <v>63.73626307629385</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N12" t="n">
-        <v>79.97735909033668</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>227.2902442456971</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P12" t="n">
-        <v>225.6660863551095</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>227.2902442456971</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L14" t="n">
-        <v>187.7865483487747</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M14" t="n">
-        <v>36.30093131326393</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N14" t="n">
-        <v>41.54873083723948</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O14" t="n">
-        <v>25.76332749029979</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P14" t="n">
-        <v>227.2902442456971</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L15" t="n">
-        <v>227.2902442456971</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>227.2902442456971</v>
+        <v>80.98221455967892</v>
       </c>
       <c r="N15" t="n">
-        <v>79.97735909033668</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O15" t="n">
-        <v>62.11210518570617</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P15" t="n">
-        <v>227.2902442456971</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>3.87492489307968</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>227.2902442456972</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>214.2318751406701</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>227.2902442456972</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>227.2902442456972</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>37.86260226792652</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M18" t="n">
-        <v>227.2902442456972</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>227.2902442456972</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>227.2902442456972</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>180.2441977658232</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,10 +36126,10 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060959</v>
       </c>
       <c r="N20" t="n">
         <v>478.8956552492236</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245897</v>
@@ -36604,7 +36606,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530451</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36680,10 +36682,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245897</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37324,7 +37326,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37555,7 +37557,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116797</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>227.2902442456971</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>227.2902442456971</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>41.54873083723948</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>132.9135786342073</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>227.2902442456971</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>63.73626307629385</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>154.3705369574558</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>227.2902442456971</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P45" t="n">
-        <v>227.2902442456971</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486115.6938803869</v>
+        <v>409109.4148361081</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>502076.0343101878</v>
+        <v>434113.9312046665</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12137797.22804338</v>
+        <v>12116072.32741042</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7961666.065119934</v>
+        <v>7982326.386207161</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>181.3766123912367</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>147.8072308395888</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>181.3766123912367</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.3766123912367</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>74.44211478292745</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>181.3766123912367</v>
+        <v>155.6728463193873</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.3766123912367</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>90.50278177497621</v>
       </c>
       <c r="U6" t="n">
-        <v>111.1751113141405</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>11.5314447954234</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1277,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>93.28541391530027</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,43 +1311,43 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="W11" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="X11" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>236.9142271596711</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>155.5032166200848</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.30468686766744</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="X14" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>18.32531763251863</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>18.11186662957333</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>7.203367682519136</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>170.1519553773886</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>413.8442992113257</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>154.249446862795</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>58.25549283948408</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>175.7859067381892</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>216.7115358892058</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>251.2289778435317</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>174.9090170977052</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231958</v>
+        <v>136.563183876413</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.6990674929509</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>62.52989468754934</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>51.70872008287455</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>85.5814405785721</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>197.0194379467206</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8900443647381</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>25.01738523407589</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.43941339835945</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>36.3385209251435</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.2483396408657</v>
+        <v>413.8442992113257</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>175.7859067381892</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>216.7115358892058</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2289778435317</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>136.563183876413</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.6990674929509</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>62.52989468754934</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>157.1888225530135</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984489</v>
+        <v>177.1207760551542</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8900443647381</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72.51350533143817</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2833454356968</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.6290279809132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>110.7477710654849</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>96.61646790657284</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>161.2398232196976</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>59.72683757586824</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>133.8279968595364</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.8941930947532</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>176.7166301627352</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>189.2906232624952</v>
       </c>
       <c r="D32" t="n">
-        <v>352.1499522257657</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>352.1499522257657</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>68.17125125809588</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
-        <v>43.31785343913981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.4160434637383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>4.553858340638264</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.888834254466539</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>274.2747577784078</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>26.94389492651078</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>33.89392690056376</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>86.88462298447446</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.9751665068903</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>220.601475281887</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4070,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>141.5548385065701</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>77.3904209054608</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>209.7888176234699</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>209.7888176234699</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>209.7888176234699</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>209.7888176234699</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>209.7888176234699</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7888176234699</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>209.7888176234699</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>26.58011823838229</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>14.51012899129894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>117.5251349022213</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>297.0879811695456</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>476.65082743687</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>656.2136737041943</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>725.5064495649468</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>725.5064495649468</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>725.5064495649468</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>725.5064495649468</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>725.5064495649468</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>725.5064495649468</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>725.5064495649468</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>725.5064495649468</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>576.206216393645</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>392.9975170085575</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>209.7888176234699</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.7041843275893</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>89.7041843275893</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>89.7041843275893</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>89.7041843275893</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>89.7041843275893</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>14.51012899129894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>14.51012899129894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>14.51012899129894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>14.51012899129894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>14.51012899129894</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>117.4233522496444</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>296.9861985169688</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>296.9861985169688</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>476.5490447842931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>656.1118910516175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>725.5064495649468</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>624.3369201178325</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>624.3369201178325</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>624.3369201178325</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>624.3369201178325</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>624.3369201178325</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>624.3369201178325</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X3" t="n">
-        <v>441.1282207327449</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>257.9195213476573</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>14.51012899129894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>14.51012899129894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>41.82425399901192</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>81.0122921912341</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>124.7031428466704</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>149.0424194815697</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>149.0424194815697</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>149.0424194815697</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>108.8123311293523</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>108.8123311293523</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>108.8123311293523</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.8123311293523</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.32787816303323</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C5" t="n">
-        <v>82.32787816303323</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D5" t="n">
-        <v>82.32787816303323</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U5" t="n">
-        <v>569.2254314512334</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V5" t="n">
-        <v>325.7766548071333</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W5" t="n">
-        <v>82.32787816303323</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X5" t="n">
-        <v>82.32787816303323</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.32787816303323</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>872.6402042227814</v>
       </c>
       <c r="U6" t="n">
-        <v>678.3417187247995</v>
+        <v>644.4165859591706</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
+        <v>348.0024326625565</v>
+      </c>
+      <c r="Y8" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>398.1570697793896</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>952.409231474855</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>750.222636833621</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>521.9990185700101</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>521.9990185700101</v>
       </c>
       <c r="W9" t="n">
-        <v>492.3847606029253</v>
+        <v>278.55024192591</v>
       </c>
       <c r="X9" t="n">
-        <v>398.1570697793896</v>
+        <v>278.55024192591</v>
       </c>
       <c r="Y9" t="n">
-        <v>398.1570697793896</v>
+        <v>278.55024192591</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.09252109618843</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C11" t="n">
-        <v>22.09252109618843</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D11" t="n">
         <v>22.09252109618843</v>
@@ -5041,7 +5041,7 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
@@ -5074,19 +5074,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>579.9844679696338</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>301.0384945329111</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>22.09252109618843</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.09252109618843</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>288.9361218459457</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>562.3310704112776</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N12" t="n">
-        <v>562.3310704112776</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="O12" t="n">
         <v>828.8278839945614</v>
@@ -5147,22 +5147,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>704.403429694748</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V12" t="n">
-        <v>469.2513214630052</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W12" t="n">
-        <v>229.9440213017212</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X12" t="n">
-        <v>22.09252109618843</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="Y12" t="n">
         <v>22.09252109618843</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I13" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K13" t="n">
         <v>22.09252109618843</v>
@@ -5232,19 +5232,19 @@
         <v>198.9927170031358</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>546.7341079359765</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C14" t="n">
-        <v>546.7341079359765</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D14" t="n">
         <v>301.0384945329111</v>
@@ -5293,7 +5293,7 @@
         <v>817.0829279823541</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P14" t="n">
         <v>1099.465256491931</v>
@@ -5311,19 +5311,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U14" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="V14" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="W14" t="n">
-        <v>825.6800813726991</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="X14" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.7341079359765</v>
+        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>181.3299761016439</v>
+        <v>179.2576787186712</v>
       </c>
       <c r="C15" t="n">
-        <v>181.3299761016439</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="D15" t="n">
-        <v>181.3299761016439</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="E15" t="n">
-        <v>22.09252109618843</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="F15" t="n">
-        <v>22.09252109618843</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="G15" t="n">
         <v>22.09252109618843</v>
@@ -5360,22 +5360,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K15" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L15" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M15" t="n">
-        <v>485.8202418432342</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N15" t="n">
-        <v>759.2151904085661</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O15" t="n">
-        <v>1025.71200399185</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P15" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q15" t="n">
         <v>1104.626054809422</v>
@@ -5387,22 +5387,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>1086.331240032075</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U15" t="n">
-        <v>1086.331240032075</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V15" t="n">
-        <v>851.1791318003322</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W15" t="n">
-        <v>596.9417750721307</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X15" t="n">
-        <v>389.0902748665978</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="Y15" t="n">
-        <v>181.3299761016439</v>
+        <v>179.2576787186712</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G16" t="n">
-        <v>29.36865006842999</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H16" t="n">
         <v>22.09252109618843</v>
@@ -5475,13 +5475,13 @@
         <v>198.9927170031358</v>
       </c>
       <c r="W16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1893.689751284805</v>
+        <v>1037.37093136154</v>
       </c>
       <c r="C17" t="n">
-        <v>1721.819089287443</v>
+        <v>1037.37093136154</v>
       </c>
       <c r="D17" t="n">
-        <v>1363.553390680693</v>
+        <v>1037.37093136154</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>1037.37093136154</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>626.3850265719329</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>208.3604819140282</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>208.3604819140282</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039688</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>163.268460077392</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>449.9470991626241</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>857.8739283493965</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>1328.377670377931</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1791.862657303192</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>2184.330749739192</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2481.618803655554</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2627.647991519844</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2568.804059358749</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2391.242537400982</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2172.341996098753</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628376</v>
+        <v>1918.575351812358</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284805</v>
+        <v>1587.512464468787</v>
       </c>
       <c r="W17" t="n">
-        <v>1893.689751284805</v>
+        <v>1410.83668962262</v>
       </c>
       <c r="X17" t="n">
-        <v>1893.689751284805</v>
+        <v>1037.37093136154</v>
       </c>
       <c r="Y17" t="n">
-        <v>1893.689751284805</v>
+        <v>1037.37093136154</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.5731653441875</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.1201360630605</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1857264018092</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.9482713963537</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.4137134232386</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4711034470639</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.7144696158003</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039688</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>52.55295983039688</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>302.6571660015151</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598704</v>
+        <v>700.3575322614759</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1216.434323012739</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1761.877144168228</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2194.43508636983</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2524.597902291028</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2627.647991519844</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2575.416961133102</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.971061558786</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.961528279271</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.789766294687</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.637658062944</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.400301334742</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.548801129209</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.788502364255</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>522.7427264180623</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>522.7427264180623</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>372.6260870057265</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>224.7129934233334</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>77.82304592542303</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039688</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039688</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039688</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039688</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>105.7528467011322</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>229.3568204186486</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>370.0690032423457</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>512.8699812875413</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>628.7535020058468</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>704.391191248302</v>
       </c>
       <c r="Q19" t="n">
-        <v>717.5841221878893</v>
+        <v>704.391191248302</v>
       </c>
       <c r="R19" t="n">
-        <v>717.5841221878893</v>
+        <v>704.391191248302</v>
       </c>
       <c r="S19" t="n">
-        <v>717.5841221878893</v>
+        <v>704.391191248302</v>
       </c>
       <c r="T19" t="n">
-        <v>490.2759348564911</v>
+        <v>704.391191248302</v>
       </c>
       <c r="U19" t="n">
-        <v>490.2759348564911</v>
+        <v>704.391191248302</v>
       </c>
       <c r="V19" t="n">
-        <v>235.5914466506042</v>
+        <v>704.391191248302</v>
       </c>
       <c r="W19" t="n">
-        <v>235.5914466506042</v>
+        <v>704.391191248302</v>
       </c>
       <c r="X19" t="n">
-        <v>235.5914466506042</v>
+        <v>704.391191248302</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.5914466506042</v>
+        <v>704.391191248302</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2091.914583926163</v>
+        <v>1197.805720035464</v>
       </c>
       <c r="C20" t="n">
-        <v>2091.914583926163</v>
+        <v>828.8432030950521</v>
       </c>
       <c r="D20" t="n">
-        <v>1733.648885319412</v>
+        <v>470.5775044883017</v>
       </c>
       <c r="E20" t="n">
-        <v>1347.860632721168</v>
+        <v>470.5775044883017</v>
       </c>
       <c r="F20" t="n">
-        <v>936.8747279315605</v>
+        <v>470.5775044883017</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>52.55295983039689</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>52.55295983039689</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039689</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>163.2684600773919</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>449.9470991626245</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>857.8739283493969</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280442</v>
+        <v>1328.377670377931</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1791.862657303192</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>2184.330749739192</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2481.618803655554</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2627.647991519844</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2627.647991519844</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2450.086469562078</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2231.185928259849</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.514423990285</v>
+        <v>1977.419283973454</v>
       </c>
       <c r="V20" t="n">
-        <v>2478.514423990285</v>
+        <v>1977.419283973454</v>
       </c>
       <c r="W20" t="n">
-        <v>2478.514423990285</v>
+        <v>1624.65062870334</v>
       </c>
       <c r="X20" t="n">
-        <v>2478.514423990285</v>
+        <v>1624.65062870334</v>
       </c>
       <c r="Y20" t="n">
-        <v>2478.514423990285</v>
+        <v>1234.511296727528</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.5731653441875</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.1201360630605</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1857264018092</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.9482713963537</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.4137134232386</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4711034470639</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.7144696158003</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039689</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>124.8009736173957</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>374.9051797885139</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>772.6055460484747</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1151.47708276696</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1696.919903922449</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2129.477846124051</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2459.640662045249</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2627.647991519844</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2627.647991519844</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2468.871403082457</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.961528279271</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.789766294687</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.637658062944</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.400301334742</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.548801129209</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.788502364255</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>125.7989248116476</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>125.7989248116476</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>125.7989248116476</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>125.7989248116476</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>125.7989248116476</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039689</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039689</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039689</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>52.55295983039689</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>105.7528467011322</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>229.3568204186486</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>370.0690032423457</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>512.8699812875413</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>628.7535020058468</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>704.391191248302</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>704.391191248302</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>704.391191248302</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>704.391191248302</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>704.391191248302</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>415.2160948486082</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005474</v>
+        <v>415.2160948486082</v>
       </c>
       <c r="W22" t="n">
-        <v>184.0273259635867</v>
+        <v>125.7989248116476</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>125.7989248116476</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>125.7989248116476</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>936.2491605982752</v>
+        <v>1606.02060534945</v>
       </c>
       <c r="C23" t="n">
-        <v>936.2491605982752</v>
+        <v>1237.058088409038</v>
       </c>
       <c r="D23" t="n">
-        <v>936.2491605982752</v>
+        <v>878.7923898022875</v>
       </c>
       <c r="E23" t="n">
-        <v>936.2491605982752</v>
+        <v>493.0041372040433</v>
       </c>
       <c r="F23" t="n">
-        <v>936.2491605982752</v>
+        <v>493.0041372040433</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>493.0041372040433</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>165.8094172400461</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036444</v>
@@ -5992,10 +5992,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.483574129469</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859355</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982752</v>
+        <v>1992.620445413571</v>
       </c>
       <c r="Y23" t="n">
-        <v>936.2491605982752</v>
+        <v>1992.620445413571</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036444</v>
@@ -6080,10 +6080,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152625</v>
@@ -6095,16 +6095,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U24" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207637</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2294.708047044452</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>2125.771864116545</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>2125.771864116545</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>2125.771864116545</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>2125.771864116545</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1210.087414675782</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C26" t="n">
-        <v>1210.087414675782</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="D26" t="n">
-        <v>1210.087414675782</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>478.7300936091827</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>478.7300936091827</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
@@ -6229,16 +6229,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2534.280582715498</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2280.518797353589</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>1949.455910010018</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W26" t="n">
-        <v>1596.687254739904</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X26" t="n">
-        <v>1596.687254739904</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y26" t="n">
-        <v>1596.687254739904</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6314,40 +6314,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2378.09626867798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2083.293227597676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1199.13500546934</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C29" t="n">
-        <v>830.1724885289282</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D29" t="n">
         <v>471.9067899221776</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2306.937064852844</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2306.937064852844</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V29" t="n">
-        <v>1975.874177509273</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W29" t="n">
-        <v>1975.874177509273</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X29" t="n">
-        <v>1975.874177509273</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y29" t="n">
-        <v>1585.734845533462</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>549.6273375774088</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2105.048665729205</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C32" t="n">
-        <v>2105.048665729205</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D32" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.514423990285</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W32" t="n">
-        <v>2478.514423990285</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X32" t="n">
-        <v>2105.048665729205</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y32" t="n">
-        <v>2105.048665729205</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
@@ -6779,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2107.405821939171</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2107.405821939171</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>2107.405821939171</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2107.405821939171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2105.048665729205</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="C35" t="n">
-        <v>2105.048665729205</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="D35" t="n">
-        <v>1749.341643278937</v>
+        <v>1337.540797065682</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>951.7525444674375</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>540.76663967783</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>122.8028315760168</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>122.8028315760168</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V35" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W35" t="n">
-        <v>2478.514423990285</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="X35" t="n">
-        <v>2105.048665729205</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="Y35" t="n">
-        <v>2105.048665729205</v>
+        <v>1695.806495672432</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7013,46 +7013,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>684.3735766921516</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X37" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1422.14692331494</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C38" t="n">
-        <v>1422.14692331494</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.14692331494</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>887.4925516215208</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>476.5066468319132</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>58.54283873010007</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>58.54283873010007</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W38" t="n">
-        <v>1949.568281034341</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X38" t="n">
-        <v>1576.102522773261</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y38" t="n">
-        <v>1576.102522773261</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,16 +7253,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7277,7 +7277,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073963</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.67413830922</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.67413830922</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.67413830922</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>204.7610447268269</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>57.87109722891651</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U40" t="n">
-        <v>500.820796875036</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V40" t="n">
-        <v>500.820796875036</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W40" t="n">
-        <v>211.4036268380754</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.67413830922</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>902.4179758042676</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2669.933035536898</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W41" t="n">
-        <v>2317.164380266784</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X41" t="n">
-        <v>1943.698622005704</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1289.017815868389</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7514,19 +7514,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>257.1154545468206</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C43" t="n">
-        <v>88.1792716189137</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D43" t="n">
-        <v>88.1792716189137</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>141.7052272592275</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7590,31 +7590,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>257.1154545468206</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X43" t="n">
-        <v>257.1154545468206</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y43" t="n">
-        <v>257.1154545468206</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.959449965771</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253591</v>
+        <v>1585.278586831884</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036445</v>
+        <v>841.2246356268895</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>430.2387308372819</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2035.589960916693</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>1662.124202655613</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y44" t="n">
-        <v>1271.984870679801</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7724,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7736,34 +7736,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.8560754027576</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C46" t="n">
-        <v>201.8560754027576</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="D46" t="n">
-        <v>201.8560754027576</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U46" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V46" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W46" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X46" t="n">
-        <v>422.6486545462877</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.8560754027576</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.143027361224</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>411.7228456185094</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>410.7896759878276</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>300.0909143113357</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5071305458797</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>323.5106463132551</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>323.9728568356811</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>315.3510198055669</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>252.9497113810285</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>111.7499598249992</v>
+        <v>256.6777029392221</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9008,25 +9008,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>204.029661389774</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N15" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>119.5899201578276</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>53.11324363636966</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>144.4639137502136</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>346.2692436516219</v>
+        <v>327.1138980603256</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11384,13 +11384,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>29.09927717916921</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>201.4337378778243</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>188.3544882872323</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.8613262648169</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>62.90140238028319</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22685,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>24.39637281224077</v>
+        <v>50.10013888409017</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.30608338606766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22728,7 +22728,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.4656039084742</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>319.5141023699695</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22831,22 +22831,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22874,7 +22874,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>109.6619469198454</v>
       </c>
       <c r="U6" t="n">
-        <v>114.7662707668343</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22965,7 +22965,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22986,7 +22986,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.33425578299913</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23080,16 +23080,16 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>275.3266899823873</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23117,7 +23117,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,10 +23150,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>160.1517263084144</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>112.4875712881772</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>122.0342345019729</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23314,19 +23314,19 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>8.095732519776732</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="12">
@@ -23387,7 +23387,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
         <v>199.8611009721718</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>14.78075600124848</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>50.17947915721956</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>82.24660231436351</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>111.4443843516483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23551,19 +23551,19 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>8.095732519776732</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W14" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="15">
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>154.3831813557971</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>111.5079271034444</v>
@@ -23627,10 +23627,10 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>181.7492343425985</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H16" t="n">
-        <v>154.4623164153581</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
         <v>153.551289182031</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>195.1209363936189</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>324.5385708368794</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>174.3319516197078</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.60738197444137</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23895,25 +23895,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>142.3193889098258</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>156.4106934180136</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>135.7767399294862</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>47.10687144748477</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.68333655655486</v>
+        <v>31.38127751273453</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>147.8779460026287</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>212.6155853432815</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.1503489660829</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2833454356968</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>346.3953207383371</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>15.53583037992934</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>324.5385708368794</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>154.249446862795</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>58.25549283948408</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>51.70872008287455</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>19.89866189156643</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>94.82326881246347</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>156.4106934180136</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>135.7767399294862</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>47.10687144748477</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>31.38127751273453</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>147.8779460026287</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>212.6155853432815</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>225.1503489660829</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>96.92615468724705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>16.15514203988175</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.1835451793764</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.5291145295021</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24420,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>317.1677021142222</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>55.20849713796017</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24603,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>107.5829646831827</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>248.9058448039441</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>4.554127262904586</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.115350019202111</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24894,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>175.9822685085124</v>
       </c>
       <c r="D32" t="n">
-        <v>2.533089394917283</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>83.71149628510265</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>2.533089394917283</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>83.76006498676537</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
-        <v>243.2051448974512</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>230.3177981997422</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25411,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>147.377457904223</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>163.4209680045844</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>69.82361682150338</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>90.99813399259972</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>300.8083635436241</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>112.5400357460054</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>80.42517927457645</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>278.7586751565903</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>193.1826947389079</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25921,7 +25921,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>25.69198259205777</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,10 +26073,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>148.3192344835763</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448797.289143649</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490531.2536378616</v>
+        <v>490531.2536378615</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519887.7922952694</v>
+        <v>519887.7922952696</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>819401.8737535683</v>
+        <v>806330.8532673611</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819401.8737535683</v>
+        <v>806330.8532673611</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819401.8737535684</v>
+        <v>819401.8737535683</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819401.8737535685</v>
+        <v>819401.8737535683</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819401.8737535685</v>
+        <v>819401.8737535684</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129236.3094006264</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="E2" t="n">
         <v>150604.5581398032</v>
@@ -26328,13 +26328,13 @@
         <v>150604.5581398033</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133938</v>
+        <v>241626.2039416921</v>
       </c>
       <c r="H2" t="n">
+        <v>241626.2039416922</v>
+      </c>
+      <c r="I2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="I2" t="n">
-        <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26346,7 +26346,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60783.47447438841</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>19267.18505391454</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,31 +26380,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>375583.8824232417</v>
+        <v>359192.6012996559</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15879.41974556689</v>
       </c>
       <c r="J3" t="n">
-        <v>47456.10237249277</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
-        <v>15348.82952195752</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213634</v>
+        <v>8757.582995213606</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>95810.565296671</v>
+        <v>91629.18802282492</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46020.40792345953</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="C4" t="n">
         <v>50385.00392753458</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="E4" t="n">
         <v>50562.47198319522</v>
@@ -26432,10 +26432,10 @@
         <v>50562.47198319522</v>
       </c>
       <c r="G4" t="n">
-        <v>53660.56571087037</v>
+        <v>53525.33483721387</v>
       </c>
       <c r="H4" t="n">
-        <v>53660.56571087037</v>
+        <v>53525.33483721387</v>
       </c>
       <c r="I4" t="n">
         <v>53660.56571087037</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44655.29803338719</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26484,10 +26484,10 @@
         <v>17553.77951678014</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>47848.99578308391</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>47848.99578308392</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22222.87103060872</v>
+        <v>-50417.14319125189</v>
       </c>
       <c r="C6" t="n">
-        <v>23303.11390642176</v>
+        <v>30352.28834029581</v>
       </c>
       <c r="D6" t="n">
-        <v>42570.29896033629</v>
+        <v>30352.28834029587</v>
       </c>
       <c r="E6" t="n">
-        <v>43859.42551059223</v>
+        <v>32192.4729192677</v>
       </c>
       <c r="F6" t="n">
-        <v>82488.3066398279</v>
+        <v>70821.35404850337</v>
       </c>
       <c r="G6" t="n">
-        <v>-232696.2076841278</v>
+        <v>-225253.4661106515</v>
       </c>
       <c r="H6" t="n">
-        <v>142887.6747391141</v>
+        <v>133939.1351890044</v>
       </c>
       <c r="I6" t="n">
-        <v>142887.674739114</v>
+        <v>120939.8412477279</v>
       </c>
       <c r="J6" t="n">
-        <v>95431.57236662133</v>
+        <v>73759.31839418859</v>
       </c>
       <c r="K6" t="n">
-        <v>127538.8452171565</v>
+        <v>136819.2609932949</v>
       </c>
       <c r="L6" t="n">
-        <v>142887.674739114</v>
+        <v>136819.2609932948</v>
       </c>
       <c r="M6" t="n">
-        <v>134130.0917439004</v>
+        <v>128061.6779980812</v>
       </c>
       <c r="N6" t="n">
-        <v>142887.6747391141</v>
+        <v>136819.2609932949</v>
       </c>
       <c r="O6" t="n">
-        <v>47077.10944244302</v>
+        <v>45190.07297046992</v>
       </c>
       <c r="P6" t="n">
-        <v>142887.6747391141</v>
+        <v>136819.2609932948</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>35.02126071912529</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>362.7865280725818</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>362.7865280725818</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.3766123912367</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -26804,10 +26804,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>656.9119978799609</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>656.9119978799611</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>342.7224034979613</v>
+        <v>327.7652673534565</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14.95713614450483</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.3766123912367</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>59.63767648642235</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>398.1307590522001</v>
+        <v>380.7554841776055</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.37527487459442</v>
       </c>
       <c r="J4" t="n">
-        <v>181.3766123912368</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
-        <v>59.63767648642224</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469626</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522001</v>
+        <v>380.7554841776054</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.3766123912367</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>59.63767648642235</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522001</v>
+        <v>380.7554841776055</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.458438303809373</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>14.93623127888774</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>56.22644270761091</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>123.7831279879409</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>185.5188213881917</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>230.1525026283978</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>256.0890048137678</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>260.2327926444661</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>245.7304467609617</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>209.7252511356677</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>157.4949293804945</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>91.6136251016656</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>33.23416284805612</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.384313674925534</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1166750643047498</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.7803332867976288</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.536376743545522</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>26.86673816386573</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>73.72438303029703</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>126.0067132457382</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>169.4315761531431</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>197.7186577995571</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>202.9516823412833</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>185.6611395127674</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>149.0094326341893</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>99.60885955683418</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>48.44911406976858</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>14.49434855082437</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.145290748100968</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05133771623668613</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6542052145571147</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>5.816479089425988</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>19.67373499777214</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>46.252308669188</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>76.00675129127202</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246924</v>
+        <v>97.26247344424596</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>102.5496410418939</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>100.1112397876356</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>92.46893341758202</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>79.12314704061681</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>54.78076573895985</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>29.4154453745408</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>11.4010126936908</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.79524046219858</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03568392079402448</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.458438303809373</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>14.93623127888774</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>56.22644270761091</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>123.7831279879409</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>185.5188213881917</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>230.1525026283978</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>256.0890048137678</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>260.2327926444661</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>245.7304467609617</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>209.7252511356677</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>157.4949293804945</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>91.6136251016656</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>33.23416284805612</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.384313674925534</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1166750643047498</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.7803332867976288</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.536376743545522</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>26.86673816386573</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>73.72438303029703</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>126.0067132457382</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>169.4315761531431</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>197.7186577995571</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>202.9516823412833</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>185.6611395127674</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>149.0094326341893</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>99.60885955683418</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>48.44911406976858</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>14.49434855082437</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.145290748100968</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05133771623668613</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6542052145571147</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>5.816479089425988</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>19.67373499777214</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>46.252308669188</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>76.00675129127202</v>
       </c>
       <c r="L22" t="n">
-        <v>101.2724571246924</v>
+        <v>97.26247344424596</v>
       </c>
       <c r="M22" t="n">
-        <v>106.777606591725</v>
+        <v>102.5496410418939</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666594</v>
+        <v>100.1112397876356</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>92.46893341758202</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>79.12314704061681</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>54.78076573895985</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>29.4154453745408</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695336</v>
+        <v>11.4010126936908</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.79524046219858</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03568392079402448</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34704,19 +34704,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.3766123912367</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>181.3766123912367</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>181.3766123912367</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>69.992702889649</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>103.9527507660056</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3766123912367</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>181.3766123912367</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>181.3766123912367</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315784</v>
       </c>
       <c r="L12" t="n">
-        <v>130.751251524742</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>144.9277431142228</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>198.8728484821095</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>80.98221455967892</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N15" t="n">
         <v>276.1565137023554</v>
@@ -35743,10 +35743,10 @@
         <v>269.1887005891755</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>111.8338386333284</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>289.5743829143759</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>412.047302208861</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>475.2563050793275</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>468.1666534598594</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>396.4324166020203</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>300.2909635518808</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>147.5042301659497</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>252.6305112839578</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730077</v>
+        <v>401.717541676728</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>521.2896876275387</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>550.9523446015035</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>436.9272143450524</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>333.4977938597963</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>104.0909992210262</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>53.73725946538917</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850085</v>
+        <v>124.8524987045621</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>142.1335180037345</v>
       </c>
       <c r="N19" t="n">
-        <v>148.370846145888</v>
+        <v>144.2434121668642</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>117.0540613316217</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>76.4017063055103</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>111.8338386333284</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>289.5743829143759</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>412.047302208861</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060959</v>
+        <v>475.2563050793275</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>468.1666534598594</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>396.4324166020203</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>300.2909635518808</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>147.5042301659497</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>72.97779170403918</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>252.6305112839578</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>401.717541676728</v>
       </c>
       <c r="M21" t="n">
-        <v>410.0055067279158</v>
+        <v>382.6985219378643</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>550.9523446015035</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>436.9272143450524</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>333.4977938597963</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>169.7043732066618</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>53.73725946538917</v>
       </c>
       <c r="L22" t="n">
-        <v>128.8624823850085</v>
+        <v>124.8524987045621</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535656</v>
+        <v>142.1335180037345</v>
       </c>
       <c r="N22" t="n">
-        <v>148.370846145888</v>
+        <v>144.2434121668642</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>117.0540613316217</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>76.4017063055103</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36606,13 +36606,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36682,19 +36682,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,7 +37399,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,10 +37633,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38034,7 +38034,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38104,13 +38104,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
